--- a/Данные/МСК1.1.xlsx
+++ b/Данные/МСК1.1.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11108"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\COUGAR\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cosmdandy/Documents/PD-4/Данные/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38E9FEF2-7777-D54D-962D-66D7A5B2094F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="25600" yWindow="440" windowWidth="25600" windowHeight="14180" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Титульник" sheetId="2" r:id="rId1"/>
     <sheet name="Описание факторов" sheetId="3" r:id="rId2"/>
     <sheet name="Исходные данные" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="75">
   <si>
     <r>
       <t>y</t>
@@ -333,6 +334,90 @@
   </si>
   <si>
     <r>
+      <t>y</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Инвестиции в основной капитал, млн руб.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>y</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - ВРП, млн.руб.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>y</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - сумма доходов населения за год, млн руб.</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t>x</t>
     </r>
     <r>
@@ -345,12 +430,23 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>12</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>y</t>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - финансовый результат деятельности (прибыль)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>x</t>
     </r>
     <r>
       <rPr>
@@ -362,23 +458,23 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - Инвестиции в основной капитал, млн руб.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>y</t>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - прямые иностранные инвестиции, млн USD</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>x</t>
     </r>
     <r>
       <rPr>
@@ -390,23 +486,23 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - ВРП, млн.руб.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>y</t>
+      <t xml:space="preserve">3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- среднегодовая численности занятых, тыс чел.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>x</t>
     </r>
     <r>
       <rPr>
@@ -418,18 +514,18 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - сумма доходов населения за год, млн руб.</t>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - стоимость основных фондов, млн. руб</t>
     </r>
   </si>
   <si>
@@ -446,18 +542,18 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - финансовый результат деятельности (прибыль)</t>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - степень износа основных фондов росстат по регионам, %</t>
     </r>
   </si>
   <si>
@@ -474,18 +570,18 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - прямые иностранные инвестиции, млн USD</t>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - затраты на научные исследования и разработки, млн руб.</t>
     </r>
   </si>
   <si>
@@ -502,18 +598,18 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>- среднегодовая численности занятых, тыс чел.</t>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - объём инновационных товаров работ услуг, млн руб.</t>
     </r>
   </si>
   <si>
@@ -530,18 +626,18 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - стоимость основных фондов, млн. руб</t>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - экспорт, млн USD</t>
     </r>
   </si>
   <si>
@@ -558,18 +654,18 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - степень износа основных фондов росстат по регионам, %</t>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - импорт, млн. USD</t>
     </r>
   </si>
   <si>
@@ -586,18 +682,18 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - затраты на научные исследования и разработки, млн руб.</t>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - доля инвестиций в активную часть экономики основных фондов экономики</t>
     </r>
   </si>
   <si>
@@ -614,18 +710,18 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - объём инновационных товаров работ услуг, млн руб.</t>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - сумма остатков вкладов на счетах в Банке России, млн. руб.</t>
     </r>
   </si>
   <si>
@@ -642,118 +738,6 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - экспорт, млн USD</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>x</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - импорт, млн. USD</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>x</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - доля инвестиций в активную часть экономики основных фондов экономики</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>x</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>11</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - сумма остатков вкладов на счетах в Банке России, млн. руб.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>x</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve">12 </t>
     </r>
     <r>
@@ -817,13 +801,79 @@
       </rPr>
       <t>: 211-365</t>
     </r>
+  </si>
+  <si>
+    <t>64516,6</t>
+  </si>
+  <si>
+    <t>64980,1</t>
+  </si>
+  <si>
+    <t>65573,6</t>
+  </si>
+  <si>
+    <t>65979,2</t>
+  </si>
+  <si>
+    <t>66407,2</t>
+  </si>
+  <si>
+    <t>66791,6</t>
+  </si>
+  <si>
+    <t>67174,0</t>
+  </si>
+  <si>
+    <t>435122,2</t>
+  </si>
+  <si>
+    <t>777458,1</t>
+  </si>
+  <si>
+    <t>958928,7</t>
+  </si>
+  <si>
+    <t>25720,2</t>
+  </si>
+  <si>
+    <t>24702,3</t>
+  </si>
+  <si>
+    <t>37211,5</t>
+  </si>
+  <si>
+    <t>50567,9</t>
+  </si>
+  <si>
+    <t>43904,4</t>
+  </si>
+  <si>
+    <t>35743,1</t>
+  </si>
+  <si>
+    <t>118194,6</t>
+  </si>
+  <si>
+    <t>148623,4</t>
+  </si>
+  <si>
+    <t>197017,5</t>
+  </si>
+  <si>
+    <t>184295,2</t>
+  </si>
+  <si>
+    <t>135211,0</t>
+  </si>
+  <si>
+    <t>8,1 9,9 12,5 124,8 174,2 113,2 143,8 188,0 199,8 215,8</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="17" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -956,6 +1006,63 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="7.5"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial Cyr"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="7.5"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -977,7 +1084,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1065,12 +1172,52 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1142,9 +1289,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1152,10 +1296,36 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="20" fillId="0" borderId="9" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="20" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="21" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="2" xr:uid="{D21733FB-D521-F24A-B42B-1521A59AEC40}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1187,7 +1357,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3073" name="AutoShape 1" descr="blob:https://web.telegram.org/94f35193-5b97-4603-9606-18c8860a2761"/>
+        <xdr:cNvPr id="3073" name="AutoShape 1" descr="blob:https://web.telegram.org/94f35193-5b97-4603-9606-18c8860a2761">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000010C0000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1229,7 +1405,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3075" name="AutoShape 3" descr="blob:https://web.telegram.org/94f35193-5b97-4603-9606-18c8860a2761"/>
+        <xdr:cNvPr id="3075" name="AutoShape 3" descr="blob:https://web.telegram.org/94f35193-5b97-4603-9606-18c8860a2761">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000030C0000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1271,7 +1453,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Рисунок 2"/>
+        <xdr:cNvPr id="3" name="Рисунок 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1565,153 +1753,153 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20">
       <c r="A1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20">
       <c r="A3" s="48" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="49" t="s">
+    <row r="4" spans="1:20" ht="15" customHeight="1">
+      <c r="A4" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="49"/>
-      <c r="M4" s="49"/>
-      <c r="N4" s="49"/>
-      <c r="O4" s="49"/>
-      <c r="P4" s="49"/>
-      <c r="Q4" s="49"/>
-      <c r="R4" s="49"/>
-    </row>
-    <row r="5" spans="1:20" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="52" t="s">
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="52"/>
+      <c r="P4" s="52"/>
+      <c r="Q4" s="52"/>
+      <c r="R4" s="52"/>
+    </row>
+    <row r="5" spans="1:20" ht="51" customHeight="1">
+      <c r="A5" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="52"/>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="52"/>
-      <c r="H5" s="52"/>
-      <c r="I5" s="52"/>
-      <c r="J5" s="52"/>
-      <c r="K5" s="52"/>
-      <c r="L5" s="52"/>
-      <c r="M5" s="52"/>
-      <c r="N5" s="52"/>
-      <c r="O5" s="52"/>
-      <c r="P5" s="52"/>
-      <c r="Q5" s="52"/>
-      <c r="R5" s="52"/>
-      <c r="S5" s="51"/>
-      <c r="T5" s="51"/>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="52"/>
-      <c r="B6" s="52"/>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="52"/>
-      <c r="H6" s="52"/>
-      <c r="I6" s="52"/>
-      <c r="J6" s="52"/>
-      <c r="K6" s="52"/>
-      <c r="L6" s="52"/>
-      <c r="M6" s="52"/>
-      <c r="N6" s="52"/>
-      <c r="O6" s="52"/>
-      <c r="P6" s="52"/>
-      <c r="Q6" s="52"/>
-      <c r="R6" s="52"/>
-      <c r="S6" s="51"/>
-      <c r="T6" s="51"/>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="52"/>
-      <c r="B7" s="52"/>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52"/>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
-      <c r="K7" s="52"/>
-      <c r="L7" s="52"/>
-      <c r="M7" s="52"/>
-      <c r="N7" s="52"/>
-      <c r="O7" s="52"/>
-      <c r="P7" s="52"/>
-      <c r="Q7" s="52"/>
-      <c r="R7" s="52"/>
-      <c r="S7" s="51"/>
-      <c r="T7" s="51"/>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51"/>
+      <c r="M5" s="51"/>
+      <c r="N5" s="51"/>
+      <c r="O5" s="51"/>
+      <c r="P5" s="51"/>
+      <c r="Q5" s="51"/>
+      <c r="R5" s="51"/>
+      <c r="S5" s="50"/>
+      <c r="T5" s="50"/>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" s="51"/>
+      <c r="B6" s="51"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="51"/>
+      <c r="K6" s="51"/>
+      <c r="L6" s="51"/>
+      <c r="M6" s="51"/>
+      <c r="N6" s="51"/>
+      <c r="O6" s="51"/>
+      <c r="P6" s="51"/>
+      <c r="Q6" s="51"/>
+      <c r="R6" s="51"/>
+      <c r="S6" s="50"/>
+      <c r="T6" s="50"/>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" s="51"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="51"/>
+      <c r="K7" s="51"/>
+      <c r="L7" s="51"/>
+      <c r="M7" s="51"/>
+      <c r="N7" s="51"/>
+      <c r="O7" s="51"/>
+      <c r="P7" s="51"/>
+      <c r="Q7" s="51"/>
+      <c r="R7" s="51"/>
+      <c r="S7" s="50"/>
+      <c r="T7" s="50"/>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="48" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20">
       <c r="A10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20">
       <c r="A11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20">
       <c r="A12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20">
       <c r="A13" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20">
       <c r="A14" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1724,14 +1912,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1739,28 +1927,29 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:T45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A2:AA51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="10.140625" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" customWidth="1"/>
-    <col min="4" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.1640625" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" customWidth="1"/>
+    <col min="4" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11" customWidth="1"/>
     <col min="13" max="13" width="12" customWidth="1"/>
-    <col min="15" max="15" width="10.5703125" customWidth="1"/>
-    <col min="16" max="16" width="10" customWidth="1"/>
+    <col min="14" max="14" width="10.5" customWidth="1"/>
+    <col min="15" max="15" width="10" customWidth="1"/>
+    <col min="17" max="17" width="9.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:20" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:27" ht="18" thickBot="1">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1803,11 +1992,9 @@
       <c r="O2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="P2" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+      <c r="P2" s="1"/>
+    </row>
+    <row r="3" spans="1:27" ht="18">
       <c r="A3" s="1">
         <v>1998</v>
       </c>
@@ -1832,13 +2019,23 @@
       <c r="L3" s="10"/>
       <c r="M3" s="10"/>
       <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="15">
+      <c r="O3" s="15">
         <v>1393.3</v>
       </c>
-      <c r="Q3" s="4"/>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="P3" s="4"/>
+      <c r="Q3" s="53"/>
+      <c r="R3" s="53"/>
+      <c r="S3" s="53"/>
+      <c r="T3" s="53"/>
+      <c r="U3" s="53"/>
+      <c r="V3" s="53"/>
+      <c r="W3" s="53"/>
+      <c r="X3" s="53"/>
+      <c r="Y3" s="53"/>
+      <c r="Z3" s="53"/>
+      <c r="AA3" s="53"/>
+    </row>
+    <row r="4" spans="1:27">
       <c r="A4" s="1">
         <v>1999</v>
       </c>
@@ -1861,15 +2058,14 @@
       <c r="J4" s="18"/>
       <c r="K4" s="18"/>
       <c r="N4" s="18"/>
-      <c r="O4" s="18"/>
-      <c r="P4" s="21">
+      <c r="O4" s="21">
         <v>1807.8</v>
       </c>
-      <c r="Q4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="R4" s="18"/>
       <c r="S4" s="18"/>
-      <c r="T4" s="18"/>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:27">
       <c r="A5" s="1">
         <v>2000</v>
       </c>
@@ -1903,15 +2099,17 @@
         <v>12600</v>
       </c>
       <c r="N5" s="18"/>
-      <c r="O5" s="18"/>
-      <c r="P5" s="21">
+      <c r="O5" s="21">
         <v>2185</v>
       </c>
-      <c r="Q5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="54">
+        <v>156215</v>
+      </c>
+      <c r="R5" s="18"/>
       <c r="S5" s="18"/>
-      <c r="T5" s="18"/>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:27">
       <c r="A6" s="1">
         <v>2001</v>
       </c>
@@ -1943,14 +2141,16 @@
         <v>13800</v>
       </c>
       <c r="N6" s="18"/>
-      <c r="O6" s="18"/>
-      <c r="P6" s="21">
+      <c r="O6" s="21">
         <v>2385.2600000000002</v>
       </c>
+      <c r="Q6" s="54">
+        <v>173839</v>
+      </c>
+      <c r="R6" s="18"/>
       <c r="S6" s="18"/>
-      <c r="T6" s="18"/>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:27">
       <c r="A7" s="1">
         <v>2002</v>
       </c>
@@ -1982,14 +2182,16 @@
         <v>17800</v>
       </c>
       <c r="N7" s="18"/>
-      <c r="O7" s="18"/>
-      <c r="P7" s="21">
+      <c r="O7" s="21">
         <v>2918.55</v>
       </c>
+      <c r="Q7" s="54">
+        <v>220396</v>
+      </c>
+      <c r="R7" s="18"/>
       <c r="S7" s="18"/>
-      <c r="T7" s="18"/>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:27">
       <c r="A8" s="1">
         <v>2003</v>
       </c>
@@ -2021,14 +2223,16 @@
         <v>24000</v>
       </c>
       <c r="N8" s="18"/>
-      <c r="O8" s="18"/>
-      <c r="P8" s="21">
+      <c r="O8" s="21">
         <v>3208.02</v>
       </c>
+      <c r="Q8" s="54">
+        <v>269588</v>
+      </c>
+      <c r="R8" s="18"/>
       <c r="S8" s="18"/>
-      <c r="T8" s="18"/>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:27">
       <c r="A9" s="1">
         <v>2004</v>
       </c>
@@ -2062,14 +2266,16 @@
         <v>32100</v>
       </c>
       <c r="N9" s="18"/>
-      <c r="O9" s="18"/>
-      <c r="P9" s="21">
+      <c r="O9" s="21">
         <v>3703.57</v>
       </c>
+      <c r="Q9" s="54">
+        <v>358531</v>
+      </c>
+      <c r="R9" s="18"/>
       <c r="S9" s="18"/>
-      <c r="T9" s="18"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:27">
       <c r="A10" s="1">
         <v>2005</v>
       </c>
@@ -2104,17 +2310,19 @@
       <c r="M10">
         <v>47100</v>
       </c>
-      <c r="N10" s="18"/>
-      <c r="O10" s="18">
+      <c r="N10" s="18">
         <v>2181920</v>
       </c>
-      <c r="P10" s="21">
+      <c r="O10" s="21">
         <v>4171.8</v>
       </c>
+      <c r="Q10" s="54">
+        <v>456025</v>
+      </c>
+      <c r="R10" s="18"/>
       <c r="S10" s="18"/>
-      <c r="T10" s="18"/>
-    </row>
-    <row r="11" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:27" ht="16">
       <c r="A11" s="1">
         <v>2006</v>
       </c>
@@ -2151,17 +2359,19 @@
       <c r="M11">
         <v>71800</v>
       </c>
-      <c r="N11" s="18"/>
-      <c r="O11" s="18">
+      <c r="N11" s="18">
         <v>3101710</v>
       </c>
-      <c r="P11" s="21">
+      <c r="O11" s="21">
         <v>5121</v>
       </c>
+      <c r="Q11" s="54">
+        <v>590162</v>
+      </c>
+      <c r="R11" s="18"/>
       <c r="S11" s="18"/>
-      <c r="T11" s="18"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:27">
       <c r="A12" s="1">
         <v>2007</v>
       </c>
@@ -2201,17 +2411,19 @@
       <c r="M12">
         <v>84400</v>
       </c>
-      <c r="N12" s="18"/>
-      <c r="O12" s="47">
+      <c r="N12" s="47">
         <v>4236780</v>
       </c>
-      <c r="P12" s="21">
+      <c r="O12" s="21">
         <v>5855</v>
       </c>
+      <c r="Q12" s="54">
+        <v>775682</v>
+      </c>
+      <c r="R12" s="18"/>
       <c r="S12" s="18"/>
-      <c r="T12" s="18"/>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:27">
       <c r="A13" s="1">
         <v>2008</v>
       </c>
@@ -2249,17 +2461,19 @@
       <c r="M13">
         <v>115500</v>
       </c>
-      <c r="N13" s="18"/>
-      <c r="O13" s="47">
+      <c r="N13" s="47">
         <v>4980090</v>
       </c>
-      <c r="P13" s="21">
+      <c r="O13" s="21">
         <v>6648</v>
       </c>
+      <c r="Q13" s="54">
+        <v>962468</v>
+      </c>
+      <c r="R13" s="18"/>
       <c r="S13" s="18"/>
-      <c r="T13" s="18"/>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:27">
       <c r="A14" s="1">
         <v>2009</v>
       </c>
@@ -2297,17 +2511,19 @@
       <c r="M14">
         <v>70900</v>
       </c>
-      <c r="N14" s="18"/>
-      <c r="O14" s="47">
+      <c r="N14" s="47">
         <v>6293522</v>
       </c>
-      <c r="P14" s="21">
+      <c r="O14" s="21">
         <v>7406</v>
       </c>
+      <c r="Q14" s="54">
+        <v>742422</v>
+      </c>
+      <c r="R14" s="18"/>
       <c r="S14" s="18"/>
-      <c r="T14" s="18"/>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:27">
       <c r="A15" s="1">
         <v>2010</v>
       </c>
@@ -2345,17 +2561,19 @@
       <c r="M15">
         <v>91000</v>
       </c>
-      <c r="N15" s="18"/>
-      <c r="O15" s="47">
+      <c r="N15" s="47">
         <v>8319415</v>
       </c>
-      <c r="P15" s="21">
+      <c r="O15" s="21">
         <v>8656</v>
       </c>
+      <c r="Q15" s="54">
+        <v>630737</v>
+      </c>
+      <c r="R15" s="18"/>
       <c r="S15" s="18"/>
-      <c r="T15" s="18"/>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:27">
       <c r="A16" s="1">
         <v>2011</v>
       </c>
@@ -2393,17 +2611,19 @@
       <c r="M16">
         <v>117100</v>
       </c>
-      <c r="N16" s="18"/>
-      <c r="O16" s="47">
+      <c r="N16" s="47">
         <v>10151635</v>
       </c>
-      <c r="P16" s="21">
+      <c r="O16" s="21">
         <v>9128</v>
       </c>
+      <c r="Q16" s="55">
+        <v>3839394.4169999999</v>
+      </c>
+      <c r="R16" s="18"/>
       <c r="S16" s="18"/>
-      <c r="T16" s="18"/>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>2012</v>
       </c>
@@ -2441,17 +2661,19 @@
       <c r="M17">
         <v>123100</v>
       </c>
-      <c r="N17" s="18"/>
-      <c r="O17" s="47">
+      <c r="N17" s="47">
         <v>11994894</v>
       </c>
-      <c r="P17" s="21">
+      <c r="O17" s="21">
         <v>9747</v>
       </c>
+      <c r="Q17" s="56">
+        <v>4868342.125</v>
+      </c>
+      <c r="R17" s="18"/>
       <c r="S17" s="18"/>
-      <c r="T17" s="18"/>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>2013</v>
       </c>
@@ -2489,15 +2711,17 @@
       <c r="M18" s="19">
         <v>135100</v>
       </c>
-      <c r="N18" s="18"/>
-      <c r="O18" s="47">
+      <c r="N18" s="47">
         <v>14385851</v>
       </c>
-      <c r="P18" s="21">
+      <c r="O18" s="21">
         <v>10965</v>
       </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Q18" s="57">
+        <v>5917985.8969999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>2014</v>
       </c>
@@ -2535,15 +2759,14 @@
       <c r="M19" s="30">
         <v>125900</v>
       </c>
-      <c r="N19" s="18"/>
-      <c r="O19" s="47">
+      <c r="N19" s="47">
         <v>16000367</v>
       </c>
-      <c r="P19" s="21">
+      <c r="O19" s="21">
         <v>12542</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>2015</v>
       </c>
@@ -2581,15 +2804,14 @@
       <c r="M20" s="19">
         <v>78600</v>
       </c>
-      <c r="N20" s="18"/>
-      <c r="O20" s="47">
+      <c r="N20" s="47">
         <v>20162741</v>
       </c>
-      <c r="P20" s="21">
+      <c r="O20" s="21">
         <v>14413</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>2016</v>
       </c>
@@ -2627,15 +2849,14 @@
       <c r="M21" s="32">
         <v>76229.7</v>
       </c>
-      <c r="N21" s="18"/>
-      <c r="O21" s="47">
+      <c r="N21" s="47">
         <v>20909815</v>
       </c>
-      <c r="P21" s="21">
+      <c r="O21" s="21">
         <v>15092</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>2017</v>
       </c>
@@ -2673,15 +2894,14 @@
       <c r="M22" s="32">
         <v>98641.4</v>
       </c>
-      <c r="N22" s="18"/>
-      <c r="O22" s="47">
+      <c r="N22" s="47">
         <v>22718576</v>
       </c>
-      <c r="P22" s="21">
+      <c r="O22" s="21">
         <v>15397</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>2018</v>
       </c>
@@ -2717,15 +2937,14 @@
       <c r="M23" s="32">
         <v>103426.8</v>
       </c>
-      <c r="N23" s="18"/>
-      <c r="O23" s="47">
+      <c r="N23" s="47">
         <v>22271453</v>
       </c>
-      <c r="P23" s="21">
+      <c r="O23" s="21">
         <v>16087</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>2019</v>
       </c>
@@ -2763,15 +2982,14 @@
       <c r="M24" s="32">
         <v>107348.1</v>
       </c>
-      <c r="N24" s="18"/>
-      <c r="O24" s="47">
+      <c r="N24" s="47">
         <v>26580520</v>
       </c>
-      <c r="P24" s="21">
+      <c r="O24" s="21">
         <v>16843</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>2020</v>
       </c>
@@ -2811,15 +3029,14 @@
       <c r="M25" s="32">
         <v>102899.2</v>
       </c>
-      <c r="N25" s="18"/>
-      <c r="O25" s="47">
+      <c r="N25" s="47">
         <v>30364225</v>
       </c>
-      <c r="P25" s="21">
+      <c r="O25" s="21">
         <v>18029</v>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" ht="16" thickBot="1">
       <c r="A26" s="1">
         <v>2021</v>
       </c>
@@ -2856,26 +3073,25 @@
         <v>129000</v>
       </c>
       <c r="N26" s="36"/>
-      <c r="O26" s="36"/>
-      <c r="P26" s="43">
+      <c r="O26" s="43">
         <v>20585</v>
       </c>
     </row>
-    <row r="27" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" s="7" customFormat="1">
       <c r="A27" s="6">
         <v>2022</v>
       </c>
-      <c r="B27" s="50">
+      <c r="B27" s="49">
         <v>5082549.2</v>
       </c>
-      <c r="C27" s="50">
+      <c r="C27" s="49">
         <v>26236000</v>
       </c>
       <c r="J27">
         <v>1378900</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19">
       <c r="A28" s="1"/>
       <c r="B28" s="5" t="s">
         <v>12</v>
@@ -2911,15 +3127,14 @@
       <c r="M28" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="N28" s="1"/>
+      <c r="N28" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="O28" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="P28" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:19">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
         <v>13</v>
@@ -2949,9 +3164,8 @@
       </c>
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
-      <c r="P29" s="1"/>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:19">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -2971,115 +3185,223 @@
       </c>
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
-      <c r="P30" s="1"/>
-    </row>
-    <row r="31" spans="1:20" ht="18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="31" spans="1:19" ht="17">
       <c r="B31" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
     </row>
-    <row r="32" spans="1:20" ht="18" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:19" ht="17">
       <c r="B32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
     </row>
-    <row r="33" spans="2:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:15" ht="17">
       <c r="B33" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" ht="17">
+      <c r="B34" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="34" spans="2:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="B34" t="s">
+    <row r="35" spans="2:15" ht="17">
+      <c r="B35" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="35" spans="2:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="B35" t="s">
+      <c r="H35" s="58">
+        <v>8089881710</v>
+      </c>
+      <c r="I35" s="58">
+        <v>8908736668</v>
+      </c>
+      <c r="J35" s="58">
+        <v>9193008301</v>
+      </c>
+      <c r="K35" s="58">
+        <v>9776264782</v>
+      </c>
+      <c r="L35" s="58">
+        <v>10539984590</v>
+      </c>
+      <c r="M35" s="58">
+        <v>11517283461</v>
+      </c>
+      <c r="N35" s="58">
+        <v>11872014626</v>
+      </c>
+      <c r="O35" s="58">
+        <v>13479555327</v>
+      </c>
+    </row>
+    <row r="36" spans="2:15" ht="17">
+      <c r="B36" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="36" spans="2:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="B36" t="s">
+    <row r="37" spans="2:15" ht="17">
+      <c r="B37" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="37" spans="2:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="B37" t="s">
+    <row r="38" spans="2:15" ht="17">
+      <c r="B38" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="38" spans="2:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="B38" t="s">
+    <row r="39" spans="2:15" ht="17">
+      <c r="B39" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="39" spans="2:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="B39" t="s">
+    <row r="40" spans="2:15" ht="17">
+      <c r="B40" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="40" spans="2:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="B40" t="s">
+    <row r="41" spans="2:15" ht="17">
+      <c r="B41" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="41" spans="2:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="B41" t="s">
+    <row r="42" spans="2:15" ht="17">
+      <c r="B42" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="42" spans="2:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="B42" t="s">
+      <c r="I42" s="59" t="s">
+        <v>53</v>
+      </c>
+      <c r="J42" s="59" t="s">
+        <v>54</v>
+      </c>
+      <c r="K42" s="59" t="s">
+        <v>55</v>
+      </c>
+      <c r="L42" s="59" t="s">
+        <v>56</v>
+      </c>
+      <c r="M42" s="59" t="s">
+        <v>57</v>
+      </c>
+      <c r="N42" s="59" t="s">
+        <v>58</v>
+      </c>
+      <c r="O42" s="59" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" ht="17">
+      <c r="B43" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="43" spans="2:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="B43" t="s">
+    <row r="44" spans="2:15" ht="17">
+      <c r="B44" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="44" spans="2:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="B44" t="s">
+      <c r="I44" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" ht="17">
+      <c r="B45" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="45" spans="2:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="B45" t="s">
-        <v>51</v>
+    <row r="48" spans="2:15">
+      <c r="I48" s="54" t="s">
+        <v>60</v>
+      </c>
+      <c r="J48" s="54">
+        <v>545540</v>
+      </c>
+      <c r="K48" s="54" t="s">
+        <v>61</v>
+      </c>
+      <c r="L48" s="54" t="s">
+        <v>62</v>
+      </c>
+      <c r="M48" s="54">
+        <v>1103366</v>
+      </c>
+      <c r="N48" s="54">
+        <v>934589</v>
+      </c>
+    </row>
+    <row r="49" spans="9:15">
+      <c r="I49" s="54" t="s">
+        <v>63</v>
+      </c>
+      <c r="J49" s="54" t="s">
+        <v>64</v>
+      </c>
+      <c r="K49" s="54">
+        <v>28811</v>
+      </c>
+      <c r="L49" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="M49" s="54" t="s">
+        <v>66</v>
+      </c>
+      <c r="N49" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="O49" s="54" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="50" spans="9:15" ht="16" thickBot="1"/>
+    <row r="51" spans="9:15" ht="16" thickBot="1">
+      <c r="I51" s="60" t="s">
+        <v>69</v>
+      </c>
+      <c r="J51" s="61" t="s">
+        <v>70</v>
+      </c>
+      <c r="K51" s="61" t="s">
+        <v>71</v>
+      </c>
+      <c r="L51" s="61" t="s">
+        <v>72</v>
+      </c>
+      <c r="M51" s="62" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C28" r:id="rId1" display="Ссылка на данные"/>
-    <hyperlink ref="G28" r:id="rId2" display="https://www.gks.ru/bgd/regl/B07_36/IssWWW.exe/Stg/d01/03-04.htm"/>
-    <hyperlink ref="B28" r:id="rId3" display="https://www.gks.ru/bgd/regl/B11_14p/IssWWW.exe/Stg/d03/24-01.htm"/>
-    <hyperlink ref="B29" r:id="rId4" display="https://rosstat.gov.ru/storage/mediabank/Invest_sub.xlsx"/>
-    <hyperlink ref="D28" r:id="rId5" display="https://mosstat.gks.ru/storage/mediabank/Ежегодник_2014.pdf"/>
-    <hyperlink ref="D29" r:id="rId6" display="https://mosstat.gks.ru/storage/mediabank/Динамика%20денежных%20доходов%20населения%20г.%20Москвы%20за%202014-2021%20гг..xlsx"/>
-    <hyperlink ref="E28" r:id="rId7" display="https://istmat.org/files/uploads/53999/moskovskiy_statisticheskiy_ezhegodnik_2010.pdf"/>
-    <hyperlink ref="E29" r:id="rId8" display="https://mosstat.gks.ru/storage/mediabank/Ежегодник_2017.pdf"/>
-    <hyperlink ref="G29" r:id="rId9" display="https://rosstat.gov.ru/storage/mediabank/05-05.xls"/>
-    <hyperlink ref="G30" r:id="rId10" display="https://rosstat.gov.ru/storage/mediabank/05-05_2017-2021.xls"/>
-    <hyperlink ref="I28" r:id="rId11" display="https://mosstat.gks.ru/storage/mediabank/st_izn_of(29).xlsx"/>
-    <hyperlink ref="K29" r:id="rId12" display="https://rosstat.gov.ru/storage/mediabank/innov-3.xls"/>
-    <hyperlink ref="J28" r:id="rId13" display="https://rosstat.gov.ru/storage/mediabank/nauka-5.xlsx"/>
-    <hyperlink ref="L29" r:id="rId14" display="https://mosstat.gks.ru/storage/mediabank/ZiiqV8YR/Товарная%20структура%20экспорта%20и%20импорта%20г.%20Москвы%20за%202016-2020%20гг..docx"/>
-    <hyperlink ref="M30" r:id="rId15" display="https://mosstat.gks.ru/storage/mediabank/ZiiqV8YR/Товарная%20структура%20экспорта%20и%20импорта%20г.%20Москвы%20за%202016-2020%20гг..docx"/>
-    <hyperlink ref="P28" r:id="rId16" display="https://data.mos.ru/opendata/dinamika-izmeneniya-velichiny-projitochnogo-minimuma"/>
-    <hyperlink ref="H28" r:id="rId17"/>
-    <hyperlink ref="K28" r:id="rId18" display="http://www.m-economy.ru/art.php?nArtId=3778"/>
-    <hyperlink ref="M29" r:id="rId19" display="https://istmat.org/files/uploads/54000/moskovskiy_statisticheskiy_ezhegodnik_2018.pdf"/>
-    <hyperlink ref="L28" r:id="rId20" display="https://mosstat.gks.ru/storage/mediabank/Ежегодник_2014.pdf"/>
-    <hyperlink ref="M28" r:id="rId21" display="https://mosstat.gks.ru/storage/mediabank/Ежегодник_2014.pdf"/>
-    <hyperlink ref="O28" r:id="rId22" display="https://www.asv.org.ru/agency/statistics?group=&amp;regions=45000&amp;year=2005,2021"/>
+    <hyperlink ref="C28" r:id="rId1" display="Ссылка на данные" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="G28" r:id="rId2" display="https://www.gks.ru/bgd/regl/B07_36/IssWWW.exe/Stg/d01/03-04.htm" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="B28" r:id="rId3" display="https://www.gks.ru/bgd/regl/B11_14p/IssWWW.exe/Stg/d03/24-01.htm" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="B29" r:id="rId4" display="https://rosstat.gov.ru/storage/mediabank/Invest_sub.xlsx" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="D28" r:id="rId5" display="https://mosstat.gks.ru/storage/mediabank/Ежегодник_2014.pdf" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
+    <hyperlink ref="D29" r:id="rId6" display="https://mosstat.gks.ru/storage/mediabank/Динамика%20денежных%20доходов%20населения%20г.%20Москвы%20за%202014-2021%20гг..xlsx" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
+    <hyperlink ref="E28" r:id="rId7" display="https://istmat.org/files/uploads/53999/moskovskiy_statisticheskiy_ezhegodnik_2010.pdf" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
+    <hyperlink ref="E29" r:id="rId8" display="https://mosstat.gks.ru/storage/mediabank/Ежегодник_2017.pdf" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
+    <hyperlink ref="G29" r:id="rId9" display="https://rosstat.gov.ru/storage/mediabank/05-05.xls" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
+    <hyperlink ref="G30" r:id="rId10" display="https://rosstat.gov.ru/storage/mediabank/05-05_2017-2021.xls" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
+    <hyperlink ref="I28" r:id="rId11" display="https://mosstat.gks.ru/storage/mediabank/st_izn_of(29).xlsx" xr:uid="{00000000-0004-0000-0200-00000A000000}"/>
+    <hyperlink ref="K29" r:id="rId12" display="https://rosstat.gov.ru/storage/mediabank/innov-3.xls" xr:uid="{00000000-0004-0000-0200-00000B000000}"/>
+    <hyperlink ref="J28" r:id="rId13" display="https://rosstat.gov.ru/storage/mediabank/nauka-5.xlsx" xr:uid="{00000000-0004-0000-0200-00000C000000}"/>
+    <hyperlink ref="L29" r:id="rId14" display="https://mosstat.gks.ru/storage/mediabank/ZiiqV8YR/Товарная%20структура%20экспорта%20и%20импорта%20г.%20Москвы%20за%202016-2020%20гг..docx" xr:uid="{00000000-0004-0000-0200-00000D000000}"/>
+    <hyperlink ref="M30" r:id="rId15" display="https://mosstat.gks.ru/storage/mediabank/ZiiqV8YR/Товарная%20структура%20экспорта%20и%20импорта%20г.%20Москвы%20за%202016-2020%20гг..docx" xr:uid="{00000000-0004-0000-0200-00000E000000}"/>
+    <hyperlink ref="O28" r:id="rId16" display="https://data.mos.ru/opendata/dinamika-izmeneniya-velichiny-projitochnogo-minimuma" xr:uid="{00000000-0004-0000-0200-00000F000000}"/>
+    <hyperlink ref="H28" r:id="rId17" xr:uid="{00000000-0004-0000-0200-000010000000}"/>
+    <hyperlink ref="K28" r:id="rId18" display="http://www.m-economy.ru/art.php?nArtId=3778" xr:uid="{00000000-0004-0000-0200-000011000000}"/>
+    <hyperlink ref="M29" r:id="rId19" display="https://istmat.org/files/uploads/54000/moskovskiy_statisticheskiy_ezhegodnik_2018.pdf" xr:uid="{00000000-0004-0000-0200-000012000000}"/>
+    <hyperlink ref="L28" r:id="rId20" display="https://mosstat.gks.ru/storage/mediabank/Ежегодник_2014.pdf" xr:uid="{00000000-0004-0000-0200-000013000000}"/>
+    <hyperlink ref="M28" r:id="rId21" display="https://mosstat.gks.ru/storage/mediabank/Ежегодник_2014.pdf" xr:uid="{00000000-0004-0000-0200-000014000000}"/>
+    <hyperlink ref="N28" r:id="rId22" display="https://www.asv.org.ru/agency/statistics?group=&amp;regions=45000&amp;year=2005,2021" xr:uid="{00000000-0004-0000-0200-000015000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
